--- a/Jeux de données.xlsx
+++ b/Jeux de données.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701871\Documents\GTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GRP-14\Partage\GTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA3730F-74BB-4BDA-B746-330EF8647BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CF3C9BC7-C652-4CDA-9431-D35C6B88B98B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="données" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm.Extract" localSheetId="3">Feuil3!$K$1:$L$1</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Presta!$P$135</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,17 +44,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={06221B32-B4EE-41EB-AFA3-A20C5B656B10}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{06221B32-B4EE-41EB-AFA3-A20C5B656B10}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>[Commentaire à thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Commentaire à thread]
 Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
 Commentaire :
     Doit correspondre au nom du dossier</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -3585,11 +3593,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3738,12 +3746,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <i/>
@@ -4356,7 +4358,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4364,9 +4366,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 18 2" xfId="2" xr:uid="{1F381B23-8387-411E-B74C-C653695593A0}"/>
-    <cellStyle name="Normal 19 2" xfId="1" xr:uid="{3DC12BF5-B5A0-4B72-84C2-74A2CEB443F9}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{ABB3578E-750E-4506-AC46-63E9452659CF}"/>
+    <cellStyle name="Normal 18 2" xfId="2"/>
+    <cellStyle name="Normal 19 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -4720,26 +4722,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E1986B-A79C-47DB-BB36-B77616319865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>insert into Activites values(1,"Production");</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4763,7 +4765,7 @@
         <v>insert into Activites values(2,"Service Public");</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>insert into Activites values(3,"Fca");</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>insert into Activites values(4,"Fcta");</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4799,7 +4801,7 @@
         <v>insert into Activites values(5,"Fcta Spe");</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>insert into Activites values(6,"Mnsp");</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4846,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4888,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4930,12 +4932,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>342</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4958,7 +4960,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4980,7 +4982,7 @@
         <v>insert into Roles  values(0,"non connecte");</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5002,7 +5004,7 @@
         <v>insert into Roles  values(1,"agent");</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -5024,7 +5026,7 @@
         <v>insert into Roles  values(2,"manager");</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5046,7 +5048,7 @@
         <v>insert into Roles  values(3,"assistante");</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -5068,7 +5070,7 @@
         <v>insert into Roles  values(4,"admin");</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5080,7 +5082,7 @@
         <v>insert into ActivitesParTypes (idType,idActivite) values(3,4);</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5092,7 +5094,7 @@
         <v>insert into ActivitesParTypes (idType,idActivite) values(3,5);</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5104,7 +5106,7 @@
         <v>insert into ActivitesParTypes (idType,idActivite) values(4,4);</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -5119,7 +5121,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -5141,7 +5143,7 @@
         <v>insert into Conversions  values(null,1,"0,15");</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>insert into Conversions  values(null,2,"0,3");</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F34" s="92">
         <v>3</v>
       </c>
@@ -5175,7 +5177,7 @@
         <v>insert into Conversions  values(null,3,"0,4");</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F35" s="92">
         <v>4</v>
       </c>
@@ -5187,7 +5189,7 @@
         <v>insert into Conversions  values(null,4,"0,5");</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>453</v>
       </c>
@@ -5202,7 +5204,7 @@
         <v>insert into Conversions  values(null,5,"0,6");</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>454</v>
       </c>
@@ -5220,7 +5222,7 @@
         <v>insert into Conversions  values(null,6,"0,8");</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>456</v>
       </c>
@@ -5228,8 +5230,11 @@
         <v>457</v>
       </c>
       <c r="C38" t="str">
-        <f>"insert into Centres (numeroCentre,nomCentre) values("&amp;A38&amp;","""&amp;B38&amp;""");"</f>
-        <v>insert into Centres (numeroCentre,nomCentre) values(02011,"Laon");</v>
+        <f>"insert into Centres (idCentre, numeroCentre,nomCentre) values("&amp;D38&amp;","&amp;A38&amp;","""&amp;B38&amp;""");"</f>
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(1,02011,"Laon");</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="F38" s="92">
         <v>7</v>
@@ -5242,7 +5247,7 @@
         <v>insert into Conversions  values(null,7,"0,9");</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>458</v>
       </c>
@@ -5250,8 +5255,11 @@
         <v>459</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" ref="C39:C56" si="5">"insert into Centres (numeroCentre,nomCentre) values("&amp;A39&amp;","""&amp;B39&amp;""");"</f>
-        <v>insert into Centres (numeroCentre,nomCentre) values(59010,"Douai Cantin");</v>
+        <f t="shared" ref="C39:C56" si="5">"insert into Centres (idCentre, numeroCentre,nomCentre) values("&amp;D39&amp;","&amp;A39&amp;","""&amp;B39&amp;""");"</f>
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(2,59010,"Douai Cantin");</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
       </c>
       <c r="F39" s="92">
         <v>8</v>
@@ -5264,7 +5272,7 @@
         <v>insert into Conversions  values(null,8,"1");</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>460</v>
       </c>
@@ -5273,10 +5281,13 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(59011,"Dunkerque");</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(3,59011,"Dunkerque");</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>462</v>
       </c>
@@ -5285,10 +5296,13 @@
       </c>
       <c r="C41" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(59012,"Maubeuge Rousies");</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(4,59012,"Maubeuge Rousies");</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>464</v>
       </c>
@@ -5297,10 +5311,13 @@
       </c>
       <c r="C42" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(59013,"Roubaix");</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(5,59013,"Roubaix");</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>466</v>
       </c>
@@ -5309,13 +5326,16 @@
       </c>
       <c r="C43" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(59014,"Valenciennes Sentinelle");</v>
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(6,59014,"Valenciennes Sentinelle");</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>468</v>
       </c>
@@ -5324,7 +5344,10 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(59015,"Lille Lomme");</v>
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(7,59015,"Lille Lomme");</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
       </c>
       <c r="F44" s="93">
         <v>45065</v>
@@ -5333,7 +5356,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>470</v>
       </c>
@@ -5342,10 +5365,13 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(59016,"Hazebrouck");</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(8,59016,"Hazebrouck");</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>472</v>
       </c>
@@ -5354,10 +5380,13 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(59017,"Wattrelos");</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(9,59017,"Wattrelos");</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>474</v>
       </c>
@@ -5366,10 +5395,13 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(59018,"Cambrai");</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(10,59018,"Cambrai");</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>476</v>
       </c>
@@ -5378,10 +5410,13 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(60010,"Beauvais");</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(11,60010,"Beauvais");</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>478</v>
       </c>
@@ -5390,10 +5425,13 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(60011,"Compiègne");</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(12,60011,"Compiègne");</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>480</v>
       </c>
@@ -5402,10 +5440,13 @@
       </c>
       <c r="C50" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(60012,"Creil");</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(13,60012,"Creil");</v>
+      </c>
+      <c r="D50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>482</v>
       </c>
@@ -5414,10 +5455,13 @@
       </c>
       <c r="C51" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(62011,"Berck sur Mer");</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(14,62011,"Berck sur Mer");</v>
+      </c>
+      <c r="D51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>484</v>
       </c>
@@ -5426,10 +5470,13 @@
       </c>
       <c r="C52" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(62012,"Calais");</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(15,62012,"Calais");</v>
+      </c>
+      <c r="D52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>486</v>
       </c>
@@ -5438,10 +5485,13 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(62014,"Liévin");</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(16,62014,"Liévin");</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>488</v>
       </c>
@@ -5450,10 +5500,13 @@
       </c>
       <c r="C54" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(62016,"Boulogne sur Mer");</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(17,62016,"Boulogne sur Mer");</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>490</v>
       </c>
@@ -5462,10 +5515,13 @@
       </c>
       <c r="C55" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(62018,"Arras");</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(18,62018,"Arras");</v>
+      </c>
+      <c r="D55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>492</v>
       </c>
@@ -5474,10 +5530,13 @@
       </c>
       <c r="C56" t="str">
         <f t="shared" si="5"/>
-        <v>insert into Centres (numeroCentre,nomCentre) values(80010,"Amiens");</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into Centres (idCentre, numeroCentre,nomCentre) values(19,80010,"Amiens");</v>
+      </c>
+      <c r="D56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>452</v>
       </c>
@@ -5485,7 +5544,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>448</v>
       </c>
@@ -5493,11 +5552,14 @@
         <v>449</v>
       </c>
       <c r="C67" t="str">
-        <f>"insert into UOs (numeroUO,libelleUO) values("&amp;A67&amp;","""&amp;B67&amp;""");"</f>
-        <v>insert into UOs (numeroUO,libelleUO) values(101,"Horticulture Paysage");</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <f>"insert into UOs (idUO,numeroUO,libelleUO) values("&amp;D67&amp;","&amp;A67&amp;","""&amp;B67&amp;""");"</f>
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(1,101,"Horticulture Paysage");</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>346</v>
       </c>
@@ -5505,11 +5567,14 @@
         <v>347</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" ref="C68:C119" si="6">"insert into UOs (numeroUO,libelleUO) values("&amp;A68&amp;","""&amp;B68&amp;""");"</f>
-        <v>insert into UOs (numeroUO,libelleUO) values(102,"Maçonnerie Gros Œuvre");</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C68:C119" si="6">"insert into UOs (idUO,numeroUO,libelleUO) values("&amp;D68&amp;","&amp;A68&amp;","""&amp;B68&amp;""");"</f>
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(2,102,"Maçonnerie Gros Œuvre");</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>432</v>
       </c>
@@ -5518,10 +5583,13 @@
       </c>
       <c r="C69" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(103,"Maitrise de chantier Gros œuvre");</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(3,103,"Maitrise de chantier Gros œuvre");</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>396</v>
       </c>
@@ -5530,10 +5598,13 @@
       </c>
       <c r="C70" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(104,"Métiers du béton");</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(4,104,"Métiers du béton");</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>348</v>
       </c>
@@ -5542,10 +5613,13 @@
       </c>
       <c r="C71" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(106,"Entretien du bâtiment");</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(5,106,"Entretien du bâtiment");</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>420</v>
       </c>
@@ -5554,10 +5628,13 @@
       </c>
       <c r="C72" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(107,"Technicien travaux Bâtiment");</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(6,107,"Technicien travaux Bâtiment");</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>350</v>
       </c>
@@ -5566,10 +5643,13 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(108,"Equipement Génie climatique");</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(7,108,"Equipement Génie climatique");</v>
+      </c>
+      <c r="D73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>352</v>
       </c>
@@ -5578,10 +5658,13 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(109,"Maintenance Génie climatique");</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(8,109,"Maintenance Génie climatique");</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>354</v>
       </c>
@@ -5590,10 +5673,13 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(111,"Aménagements finitions   niveau V");</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(9,111,"Aménagements finitions   niveau V");</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>422</v>
       </c>
@@ -5602,10 +5688,13 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(112,"Aménagements finitions   niveau IV et III");</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(10,112,"Aménagements finitions   niveau IV et III");</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>356</v>
       </c>
@@ -5614,10 +5703,13 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(114,"Voiries réseaux divers");</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(11,114,"Voiries réseaux divers");</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>398</v>
       </c>
@@ -5626,10 +5718,13 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(116,"Conduite engins de chantier");</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(12,116,"Conduite engins de chantier");</v>
+      </c>
+      <c r="D78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>434</v>
       </c>
@@ -5638,10 +5733,13 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(117,"Réseaux électriques et de communication");</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(13,117,"Réseaux électriques et de communication");</v>
+      </c>
+      <c r="D79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>446</v>
       </c>
@@ -5650,10 +5748,13 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(118,"Aluminium Verre");</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(14,118,"Aluminium Verre");</v>
+      </c>
+      <c r="D80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>358</v>
       </c>
@@ -5662,10 +5763,13 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(119,"Métallerie Constructions métalliques");</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(15,119,"Métallerie Constructions métalliques");</v>
+      </c>
+      <c r="D81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>360</v>
       </c>
@@ -5674,10 +5778,13 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(122,"Travail du bois");</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(16,122,"Travail du bois");</v>
+      </c>
+      <c r="D82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>362</v>
       </c>
@@ -5686,10 +5793,13 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(124,"Equipement électrique");</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(17,124,"Equipement électrique");</v>
+      </c>
+      <c r="D83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>424</v>
       </c>
@@ -5698,10 +5808,13 @@
       </c>
       <c r="C84" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(126,"Chaudronnerie tuyautage");</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(18,126,"Chaudronnerie tuyautage");</v>
+      </c>
+      <c r="D84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>408</v>
       </c>
@@ -5710,10 +5823,13 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(128,"Soudage et contrôle");</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(19,128,"Soudage et contrôle");</v>
+      </c>
+      <c r="D85">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>436</v>
       </c>
@@ -5722,10 +5838,13 @@
       </c>
       <c r="C86" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(132,"Etudes Méthodes et Qualité");</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(20,132,"Etudes Méthodes et Qualité");</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>450</v>
       </c>
@@ -5734,10 +5853,13 @@
       </c>
       <c r="C87" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(133,"Aéronautique");</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(21,133,"Aéronautique");</v>
+      </c>
+      <c r="D87">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>426</v>
       </c>
@@ -5746,10 +5868,13 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(134,"Usinage Montage Outillage");</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(22,134,"Usinage Montage Outillage");</v>
+      </c>
+      <c r="D88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>400</v>
       </c>
@@ -5758,10 +5883,13 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(136,"Production industrielle");</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(23,136,"Production industrielle");</v>
+      </c>
+      <c r="D89">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>410</v>
       </c>
@@ -5770,10 +5898,13 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(139,"Electronique Automatismes");</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(24,139,"Electronique Automatismes");</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>402</v>
       </c>
@@ -5782,10 +5913,13 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(141,"Froid Climatisation");</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(25,141,"Froid Climatisation");</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>364</v>
       </c>
@@ -5794,10 +5928,13 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(144,"Maintenance industrielle");</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(26,144,"Maintenance industrielle");</v>
+      </c>
+      <c r="D92">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>438</v>
       </c>
@@ -5806,10 +5943,13 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(145,"Maintenance équipements électriques");</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(27,145,"Maintenance équipements électriques");</v>
+      </c>
+      <c r="D93">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>444</v>
       </c>
@@ -5818,10 +5958,13 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(150,"Chimie");</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(28,150,"Chimie");</v>
+      </c>
+      <c r="D94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>442</v>
       </c>
@@ -5830,10 +5973,13 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(152,"Environnement");</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(29,152,"Environnement");</v>
+      </c>
+      <c r="D95">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>366</v>
       </c>
@@ -5842,10 +5988,13 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(153,"Plasturgie Procédés automatisés");</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(30,153,"Plasturgie Procédés automatisés");</v>
+      </c>
+      <c r="D96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>368</v>
       </c>
@@ -5854,10 +6003,13 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(159,"Secrétariat");</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(31,159,"Secrétariat");</v>
+      </c>
+      <c r="D97">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>370</v>
       </c>
@@ -5866,10 +6018,13 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(160,"Comptabilité Gestion");</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(32,160,"Comptabilité Gestion");</v>
+      </c>
+      <c r="D98">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>412</v>
       </c>
@@ -5878,10 +6033,13 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(161,"Relation clients à distance");</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(33,161,"Relation clients à distance");</v>
+      </c>
+      <c r="D99">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>428</v>
       </c>
@@ -5890,10 +6048,13 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(162,"Fonction commerciale");</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(34,162,"Fonction commerciale");</v>
+      </c>
+      <c r="D100">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>372</v>
       </c>
@@ -5902,10 +6063,13 @@
       </c>
       <c r="C101" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(163,"Distribution");</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(35,163,"Distribution");</v>
+      </c>
+      <c r="D101">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>414</v>
       </c>
@@ -5914,10 +6078,13 @@
       </c>
       <c r="C102" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(164,"Informatique Télécomm");</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(36,164,"Informatique Télécomm");</v>
+      </c>
+      <c r="D102">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>416</v>
       </c>
@@ -5926,10 +6093,13 @@
       </c>
       <c r="C103" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(165,"Tourisme et loisirs");</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(37,165,"Tourisme et loisirs");</v>
+      </c>
+      <c r="D103">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>374</v>
       </c>
@@ -5938,10 +6108,13 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(166,"Hôtellerie Restauration");</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(38,166,"Hôtellerie Restauration");</v>
+      </c>
+      <c r="D104">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>430</v>
       </c>
@@ -5950,10 +6123,13 @@
       </c>
       <c r="C105" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(167,"Arts graphiques");</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(39,167,"Arts graphiques");</v>
+      </c>
+      <c r="D105">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>440</v>
       </c>
@@ -5962,10 +6138,13 @@
       </c>
       <c r="C106" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(169,"Carrosserie peinture");</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(40,169,"Carrosserie peinture");</v>
+      </c>
+      <c r="D106">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>376</v>
       </c>
@@ -5974,10 +6153,13 @@
       </c>
       <c r="C107" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(170,"Réparation véhicules légers");</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(41,170,"Réparation véhicules légers");</v>
+      </c>
+      <c r="D107">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>378</v>
       </c>
@@ -5986,10 +6168,13 @@
       </c>
       <c r="C108" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(171,"Réparation véhicules lourds");</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(42,171,"Réparation véhicules lourds");</v>
+      </c>
+      <c r="D108">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>380</v>
       </c>
@@ -5998,10 +6183,13 @@
       </c>
       <c r="C109" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(173,"Conduite routière");</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(43,173,"Conduite routière");</v>
+      </c>
+      <c r="D109">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>404</v>
       </c>
@@ -6010,10 +6198,13 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(174,"Entreposage Magasinage");</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(44,174,"Entreposage Magasinage");</v>
+      </c>
+      <c r="D110">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>406</v>
       </c>
@@ -6022,10 +6213,13 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(175,"Logistique");</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(45,175,"Logistique");</v>
+      </c>
+      <c r="D111">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>382</v>
       </c>
@@ -6034,10 +6228,13 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(176,"Services aux particuliers");</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(46,176,"Services aux particuliers");</v>
+      </c>
+      <c r="D112">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>418</v>
       </c>
@@ -6046,10 +6243,13 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(177,"Services aux entreprises et collectivités");</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(47,177,"Services aux entreprises et collectivités");</v>
+      </c>
+      <c r="D113">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>384</v>
       </c>
@@ -6058,10 +6258,13 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(178,"Insertion Formation");</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(48,178,"Insertion Formation");</v>
+      </c>
+      <c r="D114">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>386</v>
       </c>
@@ -6070,10 +6273,13 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(179,"Prépro");</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(49,179,"Prépro");</v>
+      </c>
+      <c r="D115">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>388</v>
       </c>
@@ -6082,10 +6288,13 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(180,"Préinsertion");</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(50,180,"Préinsertion");</v>
+      </c>
+      <c r="D116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>390</v>
       </c>
@@ -6094,10 +6303,13 @@
       </c>
       <c r="C117" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(190,"Plateformes de Services (EAD)");</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(51,190,"Plateformes de Services (EAD)");</v>
+      </c>
+      <c r="D117">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>392</v>
       </c>
@@ -6106,10 +6318,13 @@
       </c>
       <c r="C118" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(191,"Sécurisation des parcours");</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(52,191,"Sécurisation des parcours");</v>
+      </c>
+      <c r="D118">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>394</v>
       </c>
@@ -6118,10 +6333,13 @@
       </c>
       <c r="C119" t="str">
         <f t="shared" si="6"/>
-        <v>insert into UOs (numeroUO,libelleUO) values(192,"Conseil en formation");</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>insert into UOs (idUO,numeroUO,libelleUO) values(53,192,"Conseil en formation");</v>
+      </c>
+      <c r="D119">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="85" t="s">
         <v>1</v>
       </c>
@@ -6129,7 +6347,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -6144,7 +6362,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (21,"Tps réunion IRP",4);</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4</v>
       </c>
@@ -6159,7 +6377,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (22,"Heures/décharges IRP",4);</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -6174,7 +6392,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (23,"Délégué syndical",4);</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -6189,7 +6407,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (24,"Heures/décharges syndicales",4);</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -6204,7 +6422,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (25,"Temps de réunion syndical",4);</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4</v>
       </c>
@@ -6219,7 +6437,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (26,"Autres motifs syndicaux",4);</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -6234,7 +6452,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (27,"Mandats externes",4);</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -6249,7 +6467,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (31,"perfectionnement : formation initiale",3);</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -6264,7 +6482,7 @@
         <v>insert into Motifs (codeMotif,libelleMotif,idTypePrestation) Values (32,"perfectionnement : formation continue",3);</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -6287,20 +6505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D821FB-0C42-4B25-93E9-29D5F97BBB3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>1057</v>
       </c>
@@ -6314,7 +6533,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="87" t="s">
         <v>1059</v>
       </c>
@@ -6328,7 +6547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="87" t="s">
         <v>1059</v>
       </c>
@@ -6342,7 +6561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
         <v>1059</v>
       </c>
@@ -6356,7 +6575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
         <v>1059</v>
       </c>
@@ -6370,7 +6589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
         <v>1059</v>
       </c>
@@ -6384,7 +6603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>1059</v>
       </c>
@@ -6398,7 +6617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="89" t="s">
         <v>1059</v>
       </c>
@@ -6412,7 +6631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1059</v>
       </c>
@@ -6426,7 +6645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="89" t="s">
         <v>1059</v>
       </c>
@@ -6440,7 +6659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1059</v>
       </c>
@@ -6454,7 +6673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
         <v>1070</v>
       </c>
@@ -6468,7 +6687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1070</v>
       </c>
@@ -6482,7 +6701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1070</v>
       </c>
@@ -6496,7 +6715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1070</v>
       </c>
@@ -6510,7 +6729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1070</v>
       </c>
@@ -6524,7 +6743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1070</v>
       </c>
@@ -6538,7 +6757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1070</v>
       </c>
@@ -6552,7 +6771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1070</v>
       </c>
@@ -6566,7 +6785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1070</v>
       </c>
@@ -6580,7 +6799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1078</v>
       </c>
@@ -6594,7 +6813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1078</v>
       </c>
@@ -6608,7 +6827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1078</v>
       </c>
@@ -6622,7 +6841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1078</v>
       </c>
@@ -6636,7 +6855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1078</v>
       </c>
@@ -6650,7 +6869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1078</v>
       </c>
@@ -6664,7 +6883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1078</v>
       </c>
@@ -6678,7 +6897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1085</v>
       </c>
@@ -6692,7 +6911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1085</v>
       </c>
@@ -6706,7 +6925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1085</v>
       </c>
@@ -6720,7 +6939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1085</v>
       </c>
@@ -6734,7 +6953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1085</v>
       </c>
@@ -6748,7 +6967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1085</v>
       </c>
@@ -6762,7 +6981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1085</v>
       </c>
@@ -6776,7 +6995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1085</v>
       </c>
@@ -6790,7 +7009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1085</v>
       </c>
@@ -6804,7 +7023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1085</v>
       </c>
@@ -6818,7 +7037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1085</v>
       </c>
@@ -6832,7 +7051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1085</v>
       </c>
@@ -6846,7 +7065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1085</v>
       </c>
@@ -6860,7 +7079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1085</v>
       </c>
@@ -6874,7 +7093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1085</v>
       </c>
@@ -6888,7 +7107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1085</v>
       </c>
@@ -6902,7 +7121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1085</v>
       </c>
@@ -6916,7 +7135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1085</v>
       </c>
@@ -6930,7 +7149,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1085</v>
       </c>
@@ -6944,7 +7163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1085</v>
       </c>
@@ -6958,7 +7177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1085</v>
       </c>
@@ -6972,7 +7191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1085</v>
       </c>
@@ -6986,7 +7205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1085</v>
       </c>
@@ -7000,7 +7219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1108</v>
       </c>
@@ -7014,7 +7233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1108</v>
       </c>
@@ -7028,7 +7247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1108</v>
       </c>
@@ -7042,7 +7261,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1108</v>
       </c>
@@ -7056,7 +7275,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1108</v>
       </c>
@@ -7070,7 +7289,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1108</v>
       </c>
@@ -7084,7 +7303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1108</v>
       </c>
@@ -7098,7 +7317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1108</v>
       </c>
@@ -7112,7 +7331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1108</v>
       </c>
@@ -7126,7 +7345,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1108</v>
       </c>
@@ -7140,7 +7359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1108</v>
       </c>
@@ -7154,7 +7373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1108</v>
       </c>
@@ -7168,7 +7387,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1108</v>
       </c>
@@ -7182,7 +7401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1108</v>
       </c>
@@ -7196,7 +7415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1108</v>
       </c>
@@ -7210,7 +7429,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1108</v>
       </c>
@@ -7224,7 +7443,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1108</v>
       </c>
@@ -7238,7 +7457,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1108</v>
       </c>
@@ -7252,7 +7471,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1108</v>
       </c>
@@ -7266,7 +7485,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1108</v>
       </c>
@@ -7280,7 +7499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1108</v>
       </c>
@@ -7294,7 +7513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1108</v>
       </c>
@@ -7308,7 +7527,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1108</v>
       </c>
@@ -7322,7 +7541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1108</v>
       </c>
@@ -7336,7 +7555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1108</v>
       </c>
@@ -7350,7 +7569,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1108</v>
       </c>
@@ -7364,7 +7583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1108</v>
       </c>
@@ -7378,7 +7597,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1108</v>
       </c>
@@ -7392,7 +7611,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1108</v>
       </c>
@@ -7406,7 +7625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1108</v>
       </c>
@@ -7420,7 +7639,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1138</v>
       </c>
@@ -7434,7 +7653,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1138</v>
       </c>
@@ -7448,7 +7667,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1138</v>
       </c>
@@ -7462,7 +7681,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1138</v>
       </c>
@@ -7476,7 +7695,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1138</v>
       </c>
@@ -7490,7 +7709,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1138</v>
       </c>
@@ -7504,7 +7723,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1138</v>
       </c>
@@ -7518,7 +7737,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1138</v>
       </c>
@@ -7532,7 +7751,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1138</v>
       </c>
@@ -7546,7 +7765,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1138</v>
       </c>
@@ -7560,7 +7779,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1138</v>
       </c>
@@ -7574,7 +7793,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1138</v>
       </c>
@@ -7588,7 +7807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1138</v>
       </c>
@@ -7602,7 +7821,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1138</v>
       </c>
@@ -7616,7 +7835,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1138</v>
       </c>
@@ -7630,7 +7849,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1138</v>
       </c>
@@ -7644,7 +7863,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1138</v>
       </c>
@@ -7658,7 +7877,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1138</v>
       </c>
@@ -7672,7 +7891,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1138</v>
       </c>
@@ -7686,7 +7905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1138</v>
       </c>
@@ -7700,7 +7919,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1138</v>
       </c>
@@ -7714,7 +7933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1138</v>
       </c>
@@ -7728,7 +7947,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1138</v>
       </c>
@@ -7742,7 +7961,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1138</v>
       </c>
@@ -7756,7 +7975,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1138</v>
       </c>
@@ -7770,7 +7989,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1138</v>
       </c>
@@ -7784,7 +8003,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1138</v>
       </c>
@@ -7798,7 +8017,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1138</v>
       </c>
@@ -7819,25 +8038,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E81C98-D83A-4AA3-B66B-A89C6A90F537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:U239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F205" workbookViewId="0">
+    <sheetView topLeftCell="F205" workbookViewId="0">
       <selection activeCell="U2" sqref="U2:U239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="66"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="66"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -7884,7 +8103,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -7939,7 +8158,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(134,1);</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -7994,7 +8213,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(135,2);</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -8049,7 +8268,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(136,3);</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -8104,7 +8323,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(137,4);</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -8159,7 +8378,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(138,5);</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -8214,7 +8433,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(139,6);</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -8269,7 +8488,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(139,7);</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
@@ -8324,7 +8543,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(140,8);</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -8379,7 +8598,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(140,9);</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -8434,7 +8653,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(141,10);</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -8489,7 +8708,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(178,11);</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -8544,7 +8763,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(178,12);</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
@@ -8599,7 +8818,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(178,13);</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -8654,7 +8873,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(142,14);</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -8709,7 +8928,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(143,15);</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -8764,7 +8983,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(144,16);</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>36</v>
       </c>
@@ -8819,7 +9038,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(145,17);</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
@@ -8874,7 +9093,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(146,18);</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -8929,7 +9148,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(147,19);</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>42</v>
       </c>
@@ -8984,7 +9203,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(148,20);</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -9039,7 +9258,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(149,21);</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -9094,7 +9313,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(149,22);</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>48</v>
       </c>
@@ -9149,7 +9368,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(150,23);</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
@@ -9204,7 +9423,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(151,24);</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>52</v>
       </c>
@@ -9259,7 +9478,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(152,25);</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>54</v>
       </c>
@@ -9314,7 +9533,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(152,26);</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>56</v>
       </c>
@@ -9369,7 +9588,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(178,27);</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>58</v>
       </c>
@@ -9424,7 +9643,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(153,28);</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>60</v>
       </c>
@@ -9479,7 +9698,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(153,29);</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>62</v>
       </c>
@@ -9534,7 +9753,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(178,30);</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>64</v>
       </c>
@@ -9589,7 +9808,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(154,31);</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -9644,7 +9863,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(155,32);</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -9699,7 +9918,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(156,33);</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
@@ -9754,7 +9973,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(157,34);</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>72</v>
       </c>
@@ -9809,7 +10028,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(158,35);</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>74</v>
       </c>
@@ -9864,7 +10083,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(159,36);</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>76</v>
       </c>
@@ -9919,7 +10138,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(160,37);</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>78</v>
       </c>
@@ -9974,7 +10193,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(160,38);</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>80</v>
       </c>
@@ -10029,7 +10248,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(161,39);</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>82</v>
       </c>
@@ -10084,7 +10303,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(162,40);</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>84</v>
       </c>
@@ -10139,7 +10358,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(80,41);</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>86</v>
       </c>
@@ -10194,7 +10413,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(81,42);</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>88</v>
       </c>
@@ -10249,7 +10468,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(82,43);</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>90</v>
       </c>
@@ -10304,7 +10523,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(83,44);</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>92</v>
       </c>
@@ -10359,7 +10578,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(84,45);</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>94</v>
       </c>
@@ -10414,7 +10633,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(85,46);</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>96</v>
       </c>
@@ -10469,7 +10688,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(86,47);</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>98</v>
       </c>
@@ -10524,7 +10743,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(87,48);</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>100</v>
       </c>
@@ -10579,7 +10798,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(88,49);</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>102</v>
       </c>
@@ -10634,7 +10853,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(89,50);</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>104</v>
       </c>
@@ -10689,7 +10908,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(90,51);</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>106</v>
       </c>
@@ -10744,7 +10963,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(91,52);</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>108</v>
       </c>
@@ -10799,7 +11018,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(92,53);</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>110</v>
       </c>
@@ -10854,7 +11073,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(163,54);</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>112</v>
       </c>
@@ -10909,7 +11128,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(163,55);</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>114</v>
       </c>
@@ -10964,7 +11183,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(164,56);</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>116</v>
       </c>
@@ -11019,7 +11238,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(164,57);</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>118</v>
       </c>
@@ -11074,7 +11293,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(165,58);</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>120</v>
       </c>
@@ -11129,7 +11348,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(9,59);</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>122</v>
       </c>
@@ -11184,7 +11403,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(10,60);</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>124</v>
       </c>
@@ -11239,7 +11458,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(11,61);</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>126</v>
       </c>
@@ -11294,7 +11513,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(12,62);</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>128</v>
       </c>
@@ -11349,7 +11568,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(14,63);</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>130</v>
       </c>
@@ -11404,7 +11623,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(16,64);</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>132</v>
       </c>
@@ -11459,7 +11678,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(18,65);</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>134</v>
       </c>
@@ -11514,7 +11733,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(20,66);</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>136</v>
       </c>
@@ -11569,7 +11788,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(21,67);</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>138</v>
       </c>
@@ -11624,7 +11843,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(53,68);</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>140</v>
       </c>
@@ -11679,7 +11898,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(55,69);</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>142</v>
       </c>
@@ -11734,7 +11953,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(178,70);</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>144</v>
       </c>
@@ -11789,7 +12008,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(178,71);</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>146</v>
       </c>
@@ -11844,7 +12063,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(64,72);</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>148</v>
       </c>
@@ -11899,7 +12118,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(166,73);</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>150</v>
       </c>
@@ -11954,7 +12173,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(167,74);</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>152</v>
       </c>
@@ -12009,7 +12228,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(167,75);</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>154</v>
       </c>
@@ -12064,7 +12283,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(168,76);</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>156</v>
       </c>
@@ -12119,7 +12338,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(168,77);</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>158</v>
       </c>
@@ -12174,7 +12393,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(168,78);</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>160</v>
       </c>
@@ -12229,7 +12448,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(169,79);</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>162</v>
       </c>
@@ -12284,7 +12503,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(169,80);</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>164</v>
       </c>
@@ -12339,7 +12558,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(170,81);</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>166</v>
       </c>
@@ -12394,7 +12613,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(62,82);</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>168</v>
       </c>
@@ -12449,7 +12668,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(49,83);</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>170</v>
       </c>
@@ -12504,7 +12723,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(50,84);</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>172</v>
       </c>
@@ -12559,7 +12778,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(171,85);</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>174</v>
       </c>
@@ -12614,7 +12833,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(171,86);</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>176</v>
       </c>
@@ -12669,7 +12888,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(172,87);</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>178</v>
       </c>
@@ -12724,7 +12943,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(60,89);</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>180</v>
       </c>
@@ -12779,7 +12998,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(29,90);</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>182</v>
       </c>
@@ -12834,7 +13053,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(30,91);</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>184</v>
       </c>
@@ -12889,7 +13108,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(173,92);</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>186</v>
       </c>
@@ -12944,7 +13163,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(32,93);</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>188</v>
       </c>
@@ -12999,7 +13218,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(174,94);</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>190</v>
       </c>
@@ -13054,7 +13273,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(175,95);</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>192</v>
       </c>
@@ -13109,7 +13328,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(27,96);</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>194</v>
       </c>
@@ -13164,7 +13383,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(25,97);</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>196</v>
       </c>
@@ -13219,7 +13438,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(26,98);</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>198</v>
       </c>
@@ -13274,7 +13493,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(24,99);</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>200</v>
       </c>
@@ -13329,7 +13548,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(61,100);</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>202</v>
       </c>
@@ -13384,7 +13603,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(60,101);</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>204</v>
       </c>
@@ -13439,7 +13658,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(60,102);</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>206</v>
       </c>
@@ -13494,7 +13713,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(80,103);</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>208</v>
       </c>
@@ -13549,7 +13768,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(81,104);</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>210</v>
       </c>
@@ -13604,7 +13823,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(82,105);</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>212</v>
       </c>
@@ -13659,7 +13878,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(83,106);</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>214</v>
       </c>
@@ -13714,7 +13933,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(84,107);</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>216</v>
       </c>
@@ -13769,7 +13988,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(85,108);</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>218</v>
       </c>
@@ -13824,7 +14043,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(86,109);</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>220</v>
       </c>
@@ -13879,7 +14098,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(87,110);</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>222</v>
       </c>
@@ -13934,7 +14153,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(88,111);</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>224</v>
       </c>
@@ -13989,7 +14208,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(89,112);</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>226</v>
       </c>
@@ -14044,7 +14263,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(90,113);</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>228</v>
       </c>
@@ -14099,7 +14318,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(91,114);</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>230</v>
       </c>
@@ -14154,7 +14373,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(92,115);</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>232</v>
       </c>
@@ -14209,7 +14428,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(80,116);</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>234</v>
       </c>
@@ -14264,7 +14483,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(81,117);</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>236</v>
       </c>
@@ -14319,7 +14538,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(82,118);</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>238</v>
       </c>
@@ -14374,7 +14593,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(83,119);</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>240</v>
       </c>
@@ -14429,7 +14648,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(84,120);</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>242</v>
       </c>
@@ -14484,7 +14703,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(85,121);</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>244</v>
       </c>
@@ -14539,7 +14758,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(86,122);</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>246</v>
       </c>
@@ -14594,7 +14813,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(87,123);</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>248</v>
       </c>
@@ -14649,7 +14868,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(88,124);</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>250</v>
       </c>
@@ -14704,7 +14923,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(89,125);</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>252</v>
       </c>
@@ -14759,7 +14978,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(90,126);</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>254</v>
       </c>
@@ -14814,7 +15033,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(91,127);</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>256</v>
       </c>
@@ -14869,7 +15088,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(92,128);</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>258</v>
       </c>
@@ -14924,7 +15143,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(80,129);</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>260</v>
       </c>
@@ -14979,7 +15198,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(81,130);</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>262</v>
       </c>
@@ -15034,7 +15253,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(82,131);</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>264</v>
       </c>
@@ -15089,7 +15308,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(83,132);</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>266</v>
       </c>
@@ -15144,7 +15363,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(84,133);</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>268</v>
       </c>
@@ -15199,7 +15418,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(85,134);</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>270</v>
       </c>
@@ -15254,7 +15473,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(86,135);</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>272</v>
       </c>
@@ -15309,7 +15528,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(87,136);</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>274</v>
       </c>
@@ -15364,7 +15583,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(88,137);</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>276</v>
       </c>
@@ -15419,7 +15638,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(89,138);</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>278</v>
       </c>
@@ -15474,7 +15693,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(90,139);</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>280</v>
       </c>
@@ -15529,7 +15748,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(91,140);</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>282</v>
       </c>
@@ -15584,7 +15803,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(92,141);</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>284</v>
       </c>
@@ -15639,7 +15858,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(80,142);</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>286</v>
       </c>
@@ -15694,7 +15913,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(81,143);</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>288</v>
       </c>
@@ -15749,7 +15968,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(82,144);</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>290</v>
       </c>
@@ -15804,7 +16023,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(83,145);</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>292</v>
       </c>
@@ -15859,7 +16078,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(84,146);</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>294</v>
       </c>
@@ -15914,7 +16133,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(85,147);</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>296</v>
       </c>
@@ -15969,7 +16188,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(86,148);</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>298</v>
       </c>
@@ -16024,7 +16243,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(87,149);</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>300</v>
       </c>
@@ -16079,7 +16298,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(88,150);</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>302</v>
       </c>
@@ -16134,7 +16353,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(89,151);</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>304</v>
       </c>
@@ -16189,7 +16408,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(90,152);</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>306</v>
       </c>
@@ -16244,7 +16463,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(91,153);</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>308</v>
       </c>
@@ -16299,7 +16518,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(92,154);</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>310</v>
       </c>
@@ -16354,7 +16573,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(80,155);</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>312</v>
       </c>
@@ -16409,7 +16628,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(81,156);</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>314</v>
       </c>
@@ -16464,7 +16683,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(82,157);</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>10</v>
       </c>
@@ -16519,7 +16738,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(83,158);</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>316</v>
       </c>
@@ -16574,7 +16793,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(84,159);</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>318</v>
       </c>
@@ -16629,7 +16848,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(85,160);</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>320</v>
       </c>
@@ -16684,7 +16903,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(86,161);</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>322</v>
       </c>
@@ -16739,7 +16958,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(87,162);</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>323</v>
       </c>
@@ -16794,7 +17013,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(88,163);</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>325</v>
       </c>
@@ -16849,7 +17068,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(89,164);</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>327</v>
       </c>
@@ -16904,7 +17123,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(90,165);</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F166">
         <v>166</v>
       </c>
@@ -16946,7 +17165,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(91,166);</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F167">
         <v>167</v>
       </c>
@@ -16988,7 +17207,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(92,167);</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F168">
         <v>168</v>
       </c>
@@ -17030,7 +17249,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(80,168);</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F169">
         <v>169</v>
       </c>
@@ -17072,7 +17291,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(81,169);</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F170">
         <v>170</v>
       </c>
@@ -17114,7 +17333,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(82,170);</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F171">
         <v>171</v>
       </c>
@@ -17156,7 +17375,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(83,171);</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F172">
         <v>172</v>
       </c>
@@ -17198,7 +17417,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(84,172);</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F173">
         <v>173</v>
       </c>
@@ -17240,7 +17459,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(85,173);</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F174">
         <v>174</v>
       </c>
@@ -17282,7 +17501,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(86,174);</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F175">
         <v>175</v>
       </c>
@@ -17324,7 +17543,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(87,175);</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F176">
         <v>176</v>
       </c>
@@ -17366,7 +17585,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(88,176);</v>
       </c>
     </row>
-    <row r="177" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F177">
         <v>177</v>
       </c>
@@ -17408,7 +17627,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(89,177);</v>
       </c>
     </row>
-    <row r="178" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F178">
         <v>178</v>
       </c>
@@ -17450,7 +17669,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(90,178);</v>
       </c>
     </row>
-    <row r="179" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F179">
         <v>179</v>
       </c>
@@ -17492,7 +17711,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(91,179);</v>
       </c>
     </row>
-    <row r="180" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F180">
         <v>180</v>
       </c>
@@ -17522,7 +17741,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(92,180);</v>
       </c>
     </row>
-    <row r="181" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F181">
         <v>181</v>
       </c>
@@ -17552,7 +17771,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(80,181);</v>
       </c>
     </row>
-    <row r="182" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F182">
         <v>182</v>
       </c>
@@ -17582,7 +17801,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(81,182);</v>
       </c>
     </row>
-    <row r="183" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F183">
         <v>183</v>
       </c>
@@ -17612,7 +17831,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(82,183);</v>
       </c>
     </row>
-    <row r="184" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F184">
         <v>184</v>
       </c>
@@ -17642,7 +17861,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(83,184);</v>
       </c>
     </row>
-    <row r="185" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F185">
         <v>185</v>
       </c>
@@ -17672,7 +17891,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(84,185);</v>
       </c>
     </row>
-    <row r="186" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F186">
         <v>186</v>
       </c>
@@ -17702,7 +17921,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(85,186);</v>
       </c>
     </row>
-    <row r="187" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F187">
         <v>187</v>
       </c>
@@ -17732,7 +17951,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(86,187);</v>
       </c>
     </row>
-    <row r="188" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F188">
         <v>188</v>
       </c>
@@ -17762,7 +17981,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(87,188);</v>
       </c>
     </row>
-    <row r="189" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F189">
         <v>189</v>
       </c>
@@ -17792,7 +18011,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(88,189);</v>
       </c>
     </row>
-    <row r="190" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F190">
         <v>190</v>
       </c>
@@ -17822,7 +18041,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(89,190);</v>
       </c>
     </row>
-    <row r="191" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F191">
         <v>191</v>
       </c>
@@ -17852,7 +18071,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(90,191);</v>
       </c>
     </row>
-    <row r="192" spans="6:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="6:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F192">
         <v>192</v>
       </c>
@@ -17882,7 +18101,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(91,192);</v>
       </c>
     </row>
-    <row r="193" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F193">
         <v>193</v>
       </c>
@@ -17912,7 +18131,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(92,193);</v>
       </c>
     </row>
-    <row r="194" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F194">
         <v>195</v>
       </c>
@@ -17942,7 +18161,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(120,195);</v>
       </c>
     </row>
-    <row r="195" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F195">
         <v>196</v>
       </c>
@@ -17972,7 +18191,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(121,196);</v>
       </c>
     </row>
-    <row r="196" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F196">
         <v>197</v>
       </c>
@@ -18002,7 +18221,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(122,197);</v>
       </c>
     </row>
-    <row r="197" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F197">
         <v>198</v>
       </c>
@@ -18032,7 +18251,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(123,198);</v>
       </c>
     </row>
-    <row r="198" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F198">
         <v>199</v>
       </c>
@@ -18062,7 +18281,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(124,199);</v>
       </c>
     </row>
-    <row r="199" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F199">
         <v>200</v>
       </c>
@@ -18092,7 +18311,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(125,200);</v>
       </c>
     </row>
-    <row r="200" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F200">
         <v>201</v>
       </c>
@@ -18122,7 +18341,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(126,201);</v>
       </c>
     </row>
-    <row r="201" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F201">
         <v>202</v>
       </c>
@@ -18152,7 +18371,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(127,202);</v>
       </c>
     </row>
-    <row r="202" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F202">
         <v>203</v>
       </c>
@@ -18182,7 +18401,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(128,203);</v>
       </c>
     </row>
-    <row r="203" spans="6:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="6:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F203">
         <v>204</v>
       </c>
@@ -18212,7 +18431,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(129,204);</v>
       </c>
     </row>
-    <row r="204" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F204">
         <v>205</v>
       </c>
@@ -18242,7 +18461,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(130,205);</v>
       </c>
     </row>
-    <row r="205" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F205">
         <v>206</v>
       </c>
@@ -18272,7 +18491,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(131,206);</v>
       </c>
     </row>
-    <row r="206" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F206">
         <v>207</v>
       </c>
@@ -18302,7 +18521,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(132,207);</v>
       </c>
     </row>
-    <row r="207" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F207">
         <v>208</v>
       </c>
@@ -18332,7 +18551,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(133,208);</v>
       </c>
     </row>
-    <row r="208" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F208">
         <v>209</v>
       </c>
@@ -18361,7 +18580,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(120,209);</v>
       </c>
     </row>
-    <row r="209" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F209">
         <v>210</v>
       </c>
@@ -18390,7 +18609,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(176,210);</v>
       </c>
     </row>
-    <row r="210" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F210">
         <v>212</v>
       </c>
@@ -18419,7 +18638,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(177,212);</v>
       </c>
     </row>
-    <row r="211" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F211">
         <v>213</v>
       </c>
@@ -18448,7 +18667,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(8,213);</v>
       </c>
     </row>
-    <row r="212" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F212">
         <v>214</v>
       </c>
@@ -18477,7 +18696,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(13,214);</v>
       </c>
     </row>
-    <row r="213" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F213">
         <v>215</v>
       </c>
@@ -18506,7 +18725,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(15,215);</v>
       </c>
     </row>
-    <row r="214" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F214">
         <v>216</v>
       </c>
@@ -18535,7 +18754,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(17,216);</v>
       </c>
     </row>
-    <row r="215" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F215">
         <v>217</v>
       </c>
@@ -18564,7 +18783,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(19,217);</v>
       </c>
     </row>
-    <row r="216" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F216">
         <v>218</v>
       </c>
@@ -18593,7 +18812,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(22,218);</v>
       </c>
     </row>
-    <row r="217" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F217">
         <v>219</v>
       </c>
@@ -18622,7 +18841,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(2,219);</v>
       </c>
     </row>
-    <row r="218" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F218">
         <v>220</v>
       </c>
@@ -18651,7 +18870,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(3,220);</v>
       </c>
     </row>
-    <row r="219" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F219">
         <v>221</v>
       </c>
@@ -18680,7 +18899,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(99,221);</v>
       </c>
     </row>
-    <row r="220" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F220">
         <v>222</v>
       </c>
@@ -18709,7 +18928,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(100,222);</v>
       </c>
     </row>
-    <row r="221" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F221">
         <v>223</v>
       </c>
@@ -18738,7 +18957,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(73,223);</v>
       </c>
     </row>
-    <row r="222" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F222">
         <v>225</v>
       </c>
@@ -18767,7 +18986,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(102,225);</v>
       </c>
     </row>
-    <row r="223" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F223">
         <v>226</v>
       </c>
@@ -18796,7 +19015,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(102,226);</v>
       </c>
     </row>
-    <row r="224" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F224">
         <v>227</v>
       </c>
@@ -18825,7 +19044,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(102,227);</v>
       </c>
     </row>
-    <row r="225" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F225">
         <v>228</v>
       </c>
@@ -18854,7 +19073,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(102,228);</v>
       </c>
     </row>
-    <row r="226" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F226">
         <v>229</v>
       </c>
@@ -18883,7 +19102,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(102,229);</v>
       </c>
     </row>
-    <row r="227" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F227">
         <v>230</v>
       </c>
@@ -18912,7 +19131,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(102,230);</v>
       </c>
     </row>
-    <row r="228" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F228">
         <v>231</v>
       </c>
@@ -18941,7 +19160,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(102,231);</v>
       </c>
     </row>
-    <row r="229" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F229">
         <v>232</v>
       </c>
@@ -18970,7 +19189,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(102,232);</v>
       </c>
     </row>
-    <row r="230" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F230">
         <v>234</v>
       </c>
@@ -18999,7 +19218,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(110,234);</v>
       </c>
     </row>
-    <row r="231" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F231">
         <v>235</v>
       </c>
@@ -19028,7 +19247,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(110,235);</v>
       </c>
     </row>
-    <row r="232" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F232">
         <v>236</v>
       </c>
@@ -19057,7 +19276,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(110,236);</v>
       </c>
     </row>
-    <row r="233" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F233">
         <v>237</v>
       </c>
@@ -19086,7 +19305,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(110,237);</v>
       </c>
     </row>
-    <row r="234" spans="6:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F234">
         <v>238</v>
       </c>
@@ -19115,7 +19334,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(110,238);</v>
       </c>
     </row>
-    <row r="235" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F235">
         <v>239</v>
       </c>
@@ -19144,7 +19363,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(110,239);</v>
       </c>
     </row>
-    <row r="236" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F236">
         <v>240</v>
       </c>
@@ -19173,7 +19392,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(110,240);</v>
       </c>
     </row>
-    <row r="237" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F237">
         <v>241</v>
       </c>
@@ -19202,7 +19421,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(110,241);</v>
       </c>
     </row>
-    <row r="238" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F238">
         <v>242</v>
       </c>
@@ -19231,7 +19450,7 @@
         <v>insert into Associations (idProjet,idPrestation) values(110,242);</v>
       </c>
     </row>
-    <row r="239" spans="6:21" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="6:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F239">
         <v>243</v>
       </c>
@@ -19261,14 +19480,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:L239" xr:uid="{83E81C98-D83A-4AA3-B66B-A89C6A90F537}"/>
+  <autoFilter ref="F1:L239"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7750DB-10E2-4EBC-8E5A-9C5BD6D03CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:Q398"/>
   <sheetViews>
@@ -19276,9 +19495,9 @@
       <selection activeCell="N15" sqref="N15:Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>344</v>
       </c>
@@ -19313,7 +19532,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>346</v>
       </c>
@@ -19348,7 +19567,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>348</v>
       </c>
@@ -19383,7 +19602,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>350</v>
       </c>
@@ -19418,7 +19637,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>352</v>
       </c>
@@ -19453,7 +19672,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>354</v>
       </c>
@@ -19488,7 +19707,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>356</v>
       </c>
@@ -19523,7 +19742,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>358</v>
       </c>
@@ -19558,7 +19777,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>360</v>
       </c>
@@ -19593,7 +19812,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>362</v>
       </c>
@@ -19628,7 +19847,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>364</v>
       </c>
@@ -19663,7 +19882,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>366</v>
       </c>
@@ -19698,7 +19917,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>368</v>
       </c>
@@ -19733,7 +19952,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>370</v>
       </c>
@@ -19768,7 +19987,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>372</v>
       </c>
@@ -19806,7 +20025,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>374</v>
       </c>
@@ -19844,7 +20063,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>376</v>
       </c>
@@ -19882,7 +20101,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>378</v>
       </c>
@@ -19920,7 +20139,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>380</v>
       </c>
@@ -19958,7 +20177,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>382</v>
       </c>
@@ -19996,7 +20215,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>384</v>
       </c>
@@ -20028,7 +20247,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>386</v>
       </c>
@@ -20060,7 +20279,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>388</v>
       </c>
@@ -20092,7 +20311,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>390</v>
       </c>
@@ -20124,7 +20343,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>392</v>
       </c>
@@ -20153,7 +20372,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>394</v>
       </c>
@@ -20182,7 +20401,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>346</v>
       </c>
@@ -20211,7 +20430,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>396</v>
       </c>
@@ -20231,7 +20450,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>348</v>
       </c>
@@ -20251,7 +20470,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>350</v>
       </c>
@@ -20271,7 +20490,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>352</v>
       </c>
@@ -20291,7 +20510,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>354</v>
       </c>
@@ -20311,7 +20530,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>356</v>
       </c>
@@ -20331,7 +20550,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>398</v>
       </c>
@@ -20351,7 +20570,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>358</v>
       </c>
@@ -20371,7 +20590,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>360</v>
       </c>
@@ -20391,7 +20610,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>362</v>
       </c>
@@ -20411,7 +20630,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>400</v>
       </c>
@@ -20431,7 +20650,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>402</v>
       </c>
@@ -20451,7 +20670,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>364</v>
       </c>
@@ -20471,7 +20690,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>368</v>
       </c>
@@ -20491,7 +20710,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>374</v>
       </c>
@@ -20511,7 +20730,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>376</v>
       </c>
@@ -20531,7 +20750,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>378</v>
       </c>
@@ -20551,7 +20770,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>380</v>
       </c>
@@ -20571,7 +20790,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>404</v>
       </c>
@@ -20591,7 +20810,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>406</v>
       </c>
@@ -20611,7 +20830,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>382</v>
       </c>
@@ -20631,7 +20850,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>386</v>
       </c>
@@ -20651,7 +20870,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>388</v>
       </c>
@@ -20671,7 +20890,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>390</v>
       </c>
@@ -20691,7 +20910,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>392</v>
       </c>
@@ -20711,7 +20930,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>394</v>
       </c>
@@ -20731,7 +20950,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>346</v>
       </c>
@@ -20751,7 +20970,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>396</v>
       </c>
@@ -20765,7 +20984,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>348</v>
       </c>
@@ -20779,7 +20998,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
         <v>350</v>
       </c>
@@ -20793,7 +21012,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>354</v>
       </c>
@@ -20807,7 +21026,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>356</v>
       </c>
@@ -20821,7 +21040,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>358</v>
       </c>
@@ -20835,7 +21054,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>360</v>
       </c>
@@ -20849,7 +21068,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>362</v>
       </c>
@@ -20863,7 +21082,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>408</v>
       </c>
@@ -20877,7 +21096,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>400</v>
       </c>
@@ -20891,7 +21110,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>410</v>
       </c>
@@ -20905,7 +21124,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>364</v>
       </c>
@@ -20919,7 +21138,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>368</v>
       </c>
@@ -20933,7 +21152,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>370</v>
       </c>
@@ -20947,7 +21166,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>412</v>
       </c>
@@ -20961,7 +21180,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>372</v>
       </c>
@@ -20975,7 +21194,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>414</v>
       </c>
@@ -20989,7 +21208,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>416</v>
       </c>
@@ -21003,7 +21222,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>374</v>
       </c>
@@ -21017,7 +21236,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>380</v>
       </c>
@@ -21031,7 +21250,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>404</v>
       </c>
@@ -21045,7 +21264,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>382</v>
       </c>
@@ -21059,7 +21278,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>418</v>
       </c>
@@ -21073,7 +21292,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>384</v>
       </c>
@@ -21087,7 +21306,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>386</v>
       </c>
@@ -21101,7 +21320,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>390</v>
       </c>
@@ -21115,7 +21334,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>392</v>
       </c>
@@ -21129,7 +21348,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>394</v>
       </c>
@@ -21143,7 +21362,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>346</v>
       </c>
@@ -21157,7 +21376,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>420</v>
       </c>
@@ -21171,7 +21390,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>350</v>
       </c>
@@ -21185,7 +21404,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>352</v>
       </c>
@@ -21199,7 +21418,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>354</v>
       </c>
@@ -21213,7 +21432,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>422</v>
       </c>
@@ -21227,7 +21446,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>356</v>
       </c>
@@ -21241,7 +21460,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>358</v>
       </c>
@@ -21255,7 +21474,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>360</v>
       </c>
@@ -21269,7 +21488,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>362</v>
       </c>
@@ -21283,7 +21502,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>424</v>
       </c>
@@ -21297,7 +21516,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>408</v>
       </c>
@@ -21311,7 +21530,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>426</v>
       </c>
@@ -21325,7 +21544,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>400</v>
       </c>
@@ -21339,7 +21558,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>364</v>
       </c>
@@ -21353,7 +21572,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>368</v>
       </c>
@@ -21367,7 +21586,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>372</v>
       </c>
@@ -21381,7 +21600,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>380</v>
       </c>
@@ -21395,7 +21614,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
         <v>404</v>
       </c>
@@ -21409,7 +21628,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
         <v>406</v>
       </c>
@@ -21423,7 +21642,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
         <v>382</v>
       </c>
@@ -21437,7 +21656,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>384</v>
       </c>
@@ -21451,7 +21670,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>386</v>
       </c>
@@ -21465,7 +21684,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>390</v>
       </c>
@@ -21479,7 +21698,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
         <v>392</v>
       </c>
@@ -21493,7 +21712,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>394</v>
       </c>
@@ -21507,7 +21726,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
         <v>368</v>
       </c>
@@ -21521,7 +21740,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
         <v>370</v>
       </c>
@@ -21535,7 +21754,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>412</v>
       </c>
@@ -21549,7 +21768,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
         <v>428</v>
       </c>
@@ -21563,7 +21782,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>372</v>
       </c>
@@ -21577,7 +21796,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>414</v>
       </c>
@@ -21591,7 +21810,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>430</v>
       </c>
@@ -21605,7 +21824,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
         <v>382</v>
       </c>
@@ -21619,7 +21838,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>418</v>
       </c>
@@ -21633,7 +21852,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
         <v>384</v>
       </c>
@@ -21647,7 +21866,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
         <v>386</v>
       </c>
@@ -21661,7 +21880,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
         <v>390</v>
       </c>
@@ -21675,7 +21894,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
         <v>392</v>
       </c>
@@ -21689,7 +21908,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
         <v>394</v>
       </c>
@@ -21703,7 +21922,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>346</v>
       </c>
@@ -21717,7 +21936,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>396</v>
       </c>
@@ -21731,7 +21950,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>348</v>
       </c>
@@ -21745,7 +21964,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="15" t="s">
         <v>354</v>
       </c>
@@ -21759,7 +21978,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="15" t="s">
         <v>356</v>
       </c>
@@ -21773,7 +21992,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="15" t="s">
         <v>362</v>
       </c>
@@ -21787,7 +22006,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="15" t="s">
         <v>424</v>
       </c>
@@ -21801,7 +22020,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="15" t="s">
         <v>408</v>
       </c>
@@ -21815,7 +22034,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="15" t="s">
         <v>426</v>
       </c>
@@ -21829,7 +22048,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
         <v>400</v>
       </c>
@@ -21843,7 +22062,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
         <v>410</v>
       </c>
@@ -21857,7 +22076,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>364</v>
       </c>
@@ -21871,7 +22090,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>368</v>
       </c>
@@ -21885,7 +22104,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>372</v>
       </c>
@@ -21899,7 +22118,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>414</v>
       </c>
@@ -21913,7 +22132,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>374</v>
       </c>
@@ -21927,7 +22146,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>380</v>
       </c>
@@ -21941,7 +22160,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>404</v>
       </c>
@@ -21955,7 +22174,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>382</v>
       </c>
@@ -21969,7 +22188,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>386</v>
       </c>
@@ -21983,7 +22202,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>390</v>
       </c>
@@ -21997,7 +22216,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>392</v>
       </c>
@@ -22011,7 +22230,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>394</v>
       </c>
@@ -22025,7 +22244,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>346</v>
       </c>
@@ -22039,7 +22258,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>432</v>
       </c>
@@ -22053,7 +22272,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>396</v>
       </c>
@@ -22067,7 +22286,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>348</v>
       </c>
@@ -22081,7 +22300,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>420</v>
       </c>
@@ -22095,7 +22314,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>350</v>
       </c>
@@ -22109,7 +22328,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>354</v>
       </c>
@@ -22123,7 +22342,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>356</v>
       </c>
@@ -22137,7 +22356,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>434</v>
       </c>
@@ -22151,7 +22370,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>358</v>
       </c>
@@ -22165,7 +22384,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>360</v>
       </c>
@@ -22179,7 +22398,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>362</v>
       </c>
@@ -22193,7 +22412,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>436</v>
       </c>
@@ -22207,7 +22426,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>400</v>
       </c>
@@ -22221,7 +22440,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>402</v>
       </c>
@@ -22235,7 +22454,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>364</v>
       </c>
@@ -22249,7 +22468,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>438</v>
       </c>
@@ -22263,7 +22482,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>368</v>
       </c>
@@ -22277,7 +22496,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>414</v>
       </c>
@@ -22291,7 +22510,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>416</v>
       </c>
@@ -22305,7 +22524,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>374</v>
       </c>
@@ -22319,7 +22538,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>430</v>
       </c>
@@ -22333,7 +22552,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>440</v>
       </c>
@@ -22347,7 +22566,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>376</v>
       </c>
@@ -22361,7 +22580,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>378</v>
       </c>
@@ -22375,7 +22594,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>380</v>
       </c>
@@ -22389,7 +22608,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>404</v>
       </c>
@@ -22403,7 +22622,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>406</v>
       </c>
@@ -22417,7 +22636,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>382</v>
       </c>
@@ -22431,7 +22650,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>384</v>
       </c>
@@ -22445,7 +22664,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
         <v>386</v>
       </c>
@@ -22459,7 +22678,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>390</v>
       </c>
@@ -22473,7 +22692,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
         <v>392</v>
       </c>
@@ -22487,7 +22706,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
         <v>394</v>
       </c>
@@ -22501,7 +22720,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="s">
         <v>346</v>
       </c>
@@ -22515,7 +22734,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
         <v>434</v>
       </c>
@@ -22529,7 +22748,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>362</v>
       </c>
@@ -22543,7 +22762,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>424</v>
       </c>
@@ -22557,7 +22776,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>408</v>
       </c>
@@ -22571,7 +22790,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>400</v>
       </c>
@@ -22585,7 +22804,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>442</v>
       </c>
@@ -22599,7 +22818,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>370</v>
       </c>
@@ -22613,7 +22832,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>412</v>
       </c>
@@ -22627,7 +22846,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
         <v>372</v>
       </c>
@@ -22641,7 +22860,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>414</v>
       </c>
@@ -22655,7 +22874,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
         <v>376</v>
       </c>
@@ -22669,7 +22888,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>378</v>
       </c>
@@ -22683,7 +22902,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
         <v>380</v>
       </c>
@@ -22697,7 +22916,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
         <v>404</v>
       </c>
@@ -22711,7 +22930,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="15" t="s">
         <v>406</v>
       </c>
@@ -22725,7 +22944,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>382</v>
       </c>
@@ -22739,7 +22958,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
         <v>418</v>
       </c>
@@ -22753,7 +22972,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
         <v>384</v>
       </c>
@@ -22767,7 +22986,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
         <v>386</v>
       </c>
@@ -22781,7 +23000,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
         <v>390</v>
       </c>
@@ -22795,7 +23014,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
         <v>392</v>
       </c>
@@ -22809,7 +23028,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
         <v>394</v>
       </c>
@@ -22823,7 +23042,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
         <v>394</v>
       </c>
@@ -22837,7 +23056,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
         <v>354</v>
       </c>
@@ -22851,7 +23070,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
         <v>368</v>
       </c>
@@ -22865,7 +23084,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
         <v>370</v>
       </c>
@@ -22879,7 +23098,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="15" t="s">
         <v>382</v>
       </c>
@@ -22893,7 +23112,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
         <v>418</v>
       </c>
@@ -22907,7 +23126,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
         <v>386</v>
       </c>
@@ -22921,7 +23140,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
         <v>390</v>
       </c>
@@ -22935,7 +23154,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
         <v>392</v>
       </c>
@@ -22949,7 +23168,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
         <v>394</v>
       </c>
@@ -22963,7 +23182,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
         <v>346</v>
       </c>
@@ -22977,7 +23196,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
         <v>348</v>
       </c>
@@ -22991,7 +23210,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="15" t="s">
         <v>420</v>
       </c>
@@ -23005,7 +23224,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
         <v>350</v>
       </c>
@@ -23019,7 +23238,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
         <v>352</v>
       </c>
@@ -23033,7 +23252,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
         <v>354</v>
       </c>
@@ -23047,7 +23266,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
         <v>356</v>
       </c>
@@ -23061,7 +23280,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
         <v>360</v>
       </c>
@@ -23075,7 +23294,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
         <v>424</v>
       </c>
@@ -23089,7 +23308,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
         <v>408</v>
       </c>
@@ -23103,7 +23322,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
         <v>436</v>
       </c>
@@ -23117,7 +23336,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
         <v>426</v>
       </c>
@@ -23131,7 +23350,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
         <v>438</v>
       </c>
@@ -23145,7 +23364,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
         <v>368</v>
       </c>
@@ -23159,7 +23378,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
         <v>370</v>
       </c>
@@ -23173,7 +23392,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="15" t="s">
         <v>428</v>
       </c>
@@ -23187,7 +23406,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="15" t="s">
         <v>372</v>
       </c>
@@ -23201,7 +23420,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="15" t="s">
         <v>404</v>
       </c>
@@ -23215,7 +23434,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
         <v>406</v>
       </c>
@@ -23229,7 +23448,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="15" t="s">
         <v>418</v>
       </c>
@@ -23243,7 +23462,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="15" t="s">
         <v>386</v>
       </c>
@@ -23257,7 +23476,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="15" t="s">
         <v>390</v>
       </c>
@@ -23271,7 +23490,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="15" t="s">
         <v>392</v>
       </c>
@@ -23285,7 +23504,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="15" t="s">
         <v>394</v>
       </c>
@@ -23299,7 +23518,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="15" t="s">
         <v>346</v>
       </c>
@@ -23313,7 +23532,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
         <v>396</v>
       </c>
@@ -23327,7 +23546,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
         <v>350</v>
       </c>
@@ -23341,7 +23560,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
         <v>352</v>
       </c>
@@ -23355,7 +23574,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
         <v>358</v>
       </c>
@@ -23369,7 +23588,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
         <v>402</v>
       </c>
@@ -23383,7 +23602,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
         <v>444</v>
       </c>
@@ -23397,7 +23616,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
         <v>442</v>
       </c>
@@ -23411,7 +23630,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
         <v>368</v>
       </c>
@@ -23425,7 +23644,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
         <v>370</v>
       </c>
@@ -23439,7 +23658,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
         <v>412</v>
       </c>
@@ -23453,7 +23672,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
         <v>428</v>
       </c>
@@ -23467,7 +23686,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
         <v>384</v>
       </c>
@@ -23481,7 +23700,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
         <v>386</v>
       </c>
@@ -23495,7 +23714,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
         <v>388</v>
       </c>
@@ -23509,7 +23728,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="15" t="s">
         <v>390</v>
       </c>
@@ -23523,7 +23742,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
         <v>392</v>
       </c>
@@ -23537,7 +23756,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
         <v>394</v>
       </c>
@@ -23551,7 +23770,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
         <v>362</v>
       </c>
@@ -23565,7 +23784,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="15" t="s">
         <v>400</v>
       </c>
@@ -23579,7 +23798,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="15" t="s">
         <v>410</v>
       </c>
@@ -23593,7 +23812,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="15" t="s">
         <v>402</v>
       </c>
@@ -23607,7 +23826,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="15" t="s">
         <v>364</v>
       </c>
@@ -23621,7 +23840,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="15" t="s">
         <v>442</v>
       </c>
@@ -23635,7 +23854,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="15" t="s">
         <v>366</v>
       </c>
@@ -23649,7 +23868,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="15" t="s">
         <v>368</v>
       </c>
@@ -23663,7 +23882,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="15" t="s">
         <v>372</v>
       </c>
@@ -23677,7 +23896,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="15" t="s">
         <v>414</v>
       </c>
@@ -23691,7 +23910,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="15" t="s">
         <v>416</v>
       </c>
@@ -23705,7 +23924,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="15" t="s">
         <v>374</v>
       </c>
@@ -23719,7 +23938,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="15" t="s">
         <v>404</v>
       </c>
@@ -23733,7 +23952,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="15" t="s">
         <v>382</v>
       </c>
@@ -23747,7 +23966,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="15" t="s">
         <v>418</v>
       </c>
@@ -23761,7 +23980,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
         <v>386</v>
       </c>
@@ -23775,7 +23994,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
         <v>390</v>
       </c>
@@ -23789,7 +24008,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
         <v>392</v>
       </c>
@@ -23803,7 +24022,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
         <v>394</v>
       </c>
@@ -23817,7 +24036,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
         <v>346</v>
       </c>
@@ -23831,7 +24050,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
         <v>396</v>
       </c>
@@ -23845,7 +24064,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
         <v>348</v>
       </c>
@@ -23859,7 +24078,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
         <v>350</v>
       </c>
@@ -23873,7 +24092,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
         <v>354</v>
       </c>
@@ -23887,7 +24106,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="15" t="s">
         <v>356</v>
       </c>
@@ -23901,7 +24120,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
         <v>446</v>
       </c>
@@ -23915,7 +24134,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="15" t="s">
         <v>360</v>
       </c>
@@ -23929,7 +24148,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
         <v>362</v>
       </c>
@@ -23943,7 +24162,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
         <v>368</v>
       </c>
@@ -23957,7 +24176,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
         <v>370</v>
       </c>
@@ -23971,7 +24190,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="15" t="s">
         <v>414</v>
       </c>
@@ -23985,7 +24204,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="15" t="s">
         <v>374</v>
       </c>
@@ -23999,7 +24218,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="15" t="s">
         <v>380</v>
       </c>
@@ -24013,7 +24232,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="15" t="s">
         <v>404</v>
       </c>
@@ -24027,7 +24246,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="15" t="s">
         <v>382</v>
       </c>
@@ -24041,7 +24260,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="15" t="s">
         <v>386</v>
       </c>
@@ -24055,7 +24274,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="15" t="s">
         <v>388</v>
       </c>
@@ -24069,7 +24288,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="15" t="s">
         <v>390</v>
       </c>
@@ -24083,7 +24302,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
         <v>392</v>
       </c>
@@ -24097,7 +24316,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
         <v>394</v>
       </c>
@@ -24111,7 +24330,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="15" t="s">
         <v>346</v>
       </c>
@@ -24125,7 +24344,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="15" t="s">
         <v>350</v>
       </c>
@@ -24139,7 +24358,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="15" t="s">
         <v>352</v>
       </c>
@@ -24153,7 +24372,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
         <v>354</v>
       </c>
@@ -24167,7 +24386,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="15" t="s">
         <v>356</v>
       </c>
@@ -24181,7 +24400,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="15" t="s">
         <v>360</v>
       </c>
@@ -24195,7 +24414,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="15" t="s">
         <v>362</v>
       </c>
@@ -24209,7 +24428,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="15" t="s">
         <v>400</v>
       </c>
@@ -24223,7 +24442,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="15" t="s">
         <v>402</v>
       </c>
@@ -24237,7 +24456,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
         <v>368</v>
       </c>
@@ -24251,7 +24470,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="15" t="s">
         <v>370</v>
       </c>
@@ -24265,7 +24484,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="15" t="s">
         <v>412</v>
       </c>
@@ -24279,7 +24498,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="15" t="s">
         <v>428</v>
       </c>
@@ -24293,7 +24512,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="15" t="s">
         <v>372</v>
       </c>
@@ -24307,7 +24526,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="15" t="s">
         <v>414</v>
       </c>
@@ -24321,7 +24540,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="15" t="s">
         <v>416</v>
       </c>
@@ -24335,7 +24554,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="15" t="s">
         <v>374</v>
       </c>
@@ -24349,7 +24568,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="15" t="s">
         <v>430</v>
       </c>
@@ -24363,7 +24582,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="15" t="s">
         <v>440</v>
       </c>
@@ -24377,7 +24596,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="15" t="s">
         <v>376</v>
       </c>
@@ -24391,7 +24610,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="15" t="s">
         <v>380</v>
       </c>
@@ -24405,7 +24624,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="15" t="s">
         <v>404</v>
       </c>
@@ -24419,7 +24638,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="15" t="s">
         <v>406</v>
       </c>
@@ -24433,7 +24652,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="15" t="s">
         <v>382</v>
       </c>
@@ -24447,7 +24666,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="15" t="s">
         <v>384</v>
       </c>
@@ -24461,7 +24680,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="15" t="s">
         <v>386</v>
       </c>
@@ -24475,7 +24694,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="15" t="s">
         <v>390</v>
       </c>
@@ -24489,7 +24708,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="15" t="s">
         <v>392</v>
       </c>
@@ -24503,7 +24722,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="15" t="s">
         <v>394</v>
       </c>
@@ -24517,7 +24736,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="15" t="s">
         <v>448</v>
       </c>
@@ -24531,7 +24750,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="15" t="s">
         <v>346</v>
       </c>
@@ -24545,7 +24764,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="15" t="s">
         <v>396</v>
       </c>
@@ -24559,7 +24778,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="15" t="s">
         <v>348</v>
       </c>
@@ -24573,7 +24792,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="15" t="s">
         <v>356</v>
       </c>
@@ -24587,7 +24806,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="15" t="s">
         <v>358</v>
       </c>
@@ -24601,7 +24820,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="15" t="s">
         <v>362</v>
       </c>
@@ -24615,7 +24834,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="15" t="s">
         <v>424</v>
       </c>
@@ -24629,7 +24848,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="15" t="s">
         <v>408</v>
       </c>
@@ -24643,7 +24862,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="15" t="s">
         <v>426</v>
       </c>
@@ -24657,7 +24876,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="15" t="s">
         <v>400</v>
       </c>
@@ -24671,7 +24890,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="15" t="s">
         <v>366</v>
       </c>
@@ -24685,7 +24904,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="15" t="s">
         <v>368</v>
       </c>
@@ -24699,7 +24918,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="15" t="s">
         <v>370</v>
       </c>
@@ -24713,7 +24932,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="15" t="s">
         <v>412</v>
       </c>
@@ -24727,7 +24946,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="15" t="s">
         <v>414</v>
       </c>
@@ -24741,7 +24960,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
         <v>374</v>
       </c>
@@ -24755,7 +24974,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="15" t="s">
         <v>430</v>
       </c>
@@ -24769,7 +24988,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="15" t="s">
         <v>380</v>
       </c>
@@ -24783,7 +25002,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="15" t="s">
         <v>404</v>
       </c>
@@ -24797,7 +25016,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
         <v>382</v>
       </c>
@@ -24811,7 +25030,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="15" t="s">
         <v>418</v>
       </c>
@@ -24825,7 +25044,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="15" t="s">
         <v>384</v>
       </c>
@@ -24839,7 +25058,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="15" t="s">
         <v>386</v>
       </c>
@@ -24853,7 +25072,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="15" t="s">
         <v>388</v>
       </c>
@@ -24867,7 +25086,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="15" t="s">
         <v>390</v>
       </c>
@@ -24881,7 +25100,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="15" t="s">
         <v>392</v>
       </c>
@@ -24895,7 +25114,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="15" t="s">
         <v>394</v>
       </c>
@@ -24909,7 +25128,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="15" t="s">
         <v>368</v>
       </c>
@@ -24923,7 +25142,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="15" t="s">
         <v>370</v>
       </c>
@@ -24937,7 +25156,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="15" t="s">
         <v>374</v>
       </c>
@@ -24951,7 +25170,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="15" t="s">
         <v>382</v>
       </c>
@@ -24965,7 +25184,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="15" t="s">
         <v>386</v>
       </c>
@@ -24979,7 +25198,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="15" t="s">
         <v>390</v>
       </c>
@@ -24993,7 +25212,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="15" t="s">
         <v>392</v>
       </c>
@@ -25007,7 +25226,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="15" t="s">
         <v>394</v>
       </c>
@@ -25021,7 +25240,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="15" t="s">
         <v>400</v>
       </c>
@@ -25035,7 +25254,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="15" t="s">
         <v>368</v>
       </c>
@@ -25049,7 +25268,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="15" t="s">
         <v>370</v>
       </c>
@@ -25063,7 +25282,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="15" t="s">
         <v>414</v>
       </c>
@@ -25077,7 +25296,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="15" t="s">
         <v>382</v>
       </c>
@@ -25091,7 +25310,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="15" t="s">
         <v>418</v>
       </c>
@@ -25105,7 +25324,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="15" t="s">
         <v>384</v>
       </c>
@@ -25119,7 +25338,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="15" t="s">
         <v>386</v>
       </c>
@@ -25133,7 +25352,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="15" t="s">
         <v>390</v>
       </c>
@@ -25147,7 +25366,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="15" t="s">
         <v>392</v>
       </c>
@@ -25161,7 +25380,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="15" t="s">
         <v>394</v>
       </c>
@@ -25175,7 +25394,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="15" t="s">
         <v>346</v>
       </c>
@@ -25189,7 +25408,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="15" t="s">
         <v>348</v>
       </c>
@@ -25203,7 +25422,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="15" t="s">
         <v>350</v>
       </c>
@@ -25217,7 +25436,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="15" t="s">
         <v>352</v>
       </c>
@@ -25231,7 +25450,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="15" t="s">
         <v>354</v>
       </c>
@@ -25245,7 +25464,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="15" t="s">
         <v>362</v>
       </c>
@@ -25259,7 +25478,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="15" t="s">
         <v>424</v>
       </c>
@@ -25273,7 +25492,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="15" t="s">
         <v>408</v>
       </c>
@@ -25287,7 +25506,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="15" t="s">
         <v>450</v>
       </c>
@@ -25301,7 +25520,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="15" t="s">
         <v>426</v>
       </c>
@@ -25315,7 +25534,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="15" t="s">
         <v>402</v>
       </c>
@@ -25329,7 +25548,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="15" t="s">
         <v>364</v>
       </c>
@@ -25343,7 +25562,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="15" t="s">
         <v>442</v>
       </c>
@@ -25357,7 +25576,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="15" t="s">
         <v>368</v>
       </c>
@@ -25371,7 +25590,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="15" t="s">
         <v>370</v>
       </c>
@@ -25385,7 +25604,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="15" t="s">
         <v>412</v>
       </c>
@@ -25399,7 +25618,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="15" t="s">
         <v>428</v>
       </c>
@@ -25413,7 +25632,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="15" t="s">
         <v>372</v>
       </c>
@@ -25427,7 +25646,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="15" t="s">
         <v>414</v>
       </c>
@@ -25441,7 +25660,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="15" t="s">
         <v>380</v>
       </c>
@@ -25455,7 +25674,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="15" t="s">
         <v>404</v>
       </c>
@@ -25469,7 +25688,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="15" t="s">
         <v>382</v>
       </c>
@@ -25483,7 +25702,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="15" t="s">
         <v>384</v>
       </c>
@@ -25497,7 +25716,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="15" t="s">
         <v>386</v>
       </c>
@@ -25511,7 +25730,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="15" t="s">
         <v>388</v>
       </c>
@@ -25525,7 +25744,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="15" t="s">
         <v>390</v>
       </c>
@@ -25539,7 +25758,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="15" t="s">
         <v>392</v>
       </c>
@@ -25553,7 +25772,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="15" t="s">
         <v>394</v>
       </c>
@@ -25568,7 +25787,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E398">
+  <sortState ref="D2:E398">
     <sortCondition ref="D2:D398"/>
   </sortState>
   <conditionalFormatting sqref="B2:B246 A2:A398">
